--- a/biology/Zoologie/Bombyx_du_trèfle/Bombyx_du_trèfle.xlsx
+++ b/biology/Zoologie/Bombyx_du_trèfle/Bombyx_du_trèfle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bombyx_du_tr%C3%A8fle</t>
+          <t>Bombyx_du_trèfle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lasiocampa trifolii
 Le Bombyx du trèfle ou Petit Minime à bande (Lasiocampa trifolii) est une espèce de lépidoptères (papillons) appartenant à la famille des Lasiocampidae, à la sous-famille des Lasiocampinae et au genre Lasiocampa.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bombyx_du_tr%C3%A8fle</t>
+          <t>Bombyx_du_trèfle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure du mâle : de 21 à 24 mm.
 			Bombyx du trèfle ♂  face dorsale Muséum de Toulouse.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bombyx_du_tr%C3%A8fle</t>
+          <t>Bombyx_du_trèfle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Période de vol : de juillet à début octobre.</t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bombyx_du_tr%C3%A8fle</t>
+          <t>Bombyx_du_trèfle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
 De l’Europe à l’Iran et à l’Afrique du Nord
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bombyx_du_tr%C3%A8fle</t>
+          <t>Bombyx_du_trèfle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Plantes-hôtes : nombreuses espèces : essentiellement des Fabacées et des Poacées.</t>
         </is>
@@ -625,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bombyx_du_tr%C3%A8fle</t>
+          <t>Bombyx_du_trèfle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,22 +663,127 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce Lasiocampa trifolii a été décrite par les entomologistes Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller en 1775, sous le nom initial de Bombyx trifolii[1].
-Synonymie
-Bombyx trifolii Denis &amp; Schiffermüller, 1775 Protonyme
-Bombyx cocles Geyer, [1831] in Hübner (1800-1838)
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Lasiocampa trifolii a été décrite par les entomologistes Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller en 1775, sous le nom initial de Bombyx trifolii.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bombyx_du_trèfle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombyx_du_tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bombyx trifolii Denis &amp; Schiffermüller, 1775 Protonyme
+Bombyx cocles Geyer,  in Hübner (1800-1838)
 Bombyx trifolii var. ratamae Herrich-Schäffer, 1851
 Bombyx trifolii var. bathseba Staudinger, 1891
-Bombyx trifolii var. maculosa Rogenhofer, 1891
-Noms vernaculaires
-En français Bombyx du trèfle ou Petit Minime à bande
-En anglais : grass eggar
-Taxinomie
-Liste des sous-espèces
+Bombyx trifolii var. maculosa Rogenhofer, 1891</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bombyx_du_trèfle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombyx_du_tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En français Bombyx du trèfle ou Petit Minime à bande
+En anglais : grass eggar</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bombyx_du_trèfle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombyx_du_tr%C3%A8fle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Lasiocampa trifolii trifolii
-Lasiocampa trifolii mauritanica (Staudinger, 1892)[2]</t>
+Lasiocampa trifolii mauritanica (Staudinger, 1892)</t>
         </is>
       </c>
     </row>
